--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -105,250 +105,250 @@
     <t>E.C. Bororé</t>
   </si>
   <si>
+    <t>TORRESMO COM PINGA</t>
+  </si>
+  <si>
+    <t>seralex</t>
+  </si>
+  <si>
+    <t>F.C. Rei Das Copas</t>
+  </si>
+  <si>
+    <t>KillerColorado</t>
+  </si>
+  <si>
+    <t>Gig@ntte</t>
+  </si>
+  <si>
+    <t>FBC Colorado</t>
+  </si>
+  <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
+    <t>Universidade Católica do Chile</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Universitário</t>
+  </si>
+  <si>
+    <t>Central Córdoba</t>
+  </si>
+  <si>
+    <t>Deportivo Táchira</t>
+  </si>
+  <si>
+    <t>Alianza Lima</t>
+  </si>
+  <si>
+    <t>Talleres</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>Cerro Porteño</t>
+  </si>
+  <si>
+    <t>Sporting Cristal</t>
+  </si>
+  <si>
+    <t>San Antônio Bulo Bulo</t>
+  </si>
+  <si>
+    <t>Velez Sarsfield</t>
+  </si>
+  <si>
+    <t>Júlio Cesar</t>
+  </si>
+  <si>
+    <t>Camilo</t>
+  </si>
+  <si>
+    <t>Sauer</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Ananias</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Fedato</t>
+  </si>
+  <si>
+    <t>Elemar</t>
+  </si>
+  <si>
+    <t>Márcio</t>
+  </si>
+  <si>
+    <t>Moodi</t>
+  </si>
+  <si>
+    <t>Marquinho</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>BORGES ITAQUI F.C.</t>
+  </si>
+  <si>
+    <t>pura bucha /botafogo</t>
+  </si>
+  <si>
+    <t>Tabajara de Inhaua FC2</t>
+  </si>
+  <si>
+    <t>HS SPORTS F.C</t>
+  </si>
+  <si>
+    <t>cartola scheuer</t>
+  </si>
+  <si>
+    <t>TEAM LOPES 99</t>
+  </si>
+  <si>
+    <t>Super Vasco f.c</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
+  </si>
+  <si>
+    <t>ITAQUI F. C.</t>
+  </si>
+  <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
     <t>Lá do Itaqui</t>
   </si>
   <si>
-    <t>TORRESMO COM PINGA</t>
-  </si>
-  <si>
-    <t>F.C. Rei Das Copas</t>
-  </si>
-  <si>
-    <t>KillerColorado</t>
-  </si>
-  <si>
-    <t>Gig@ntte</t>
-  </si>
-  <si>
-    <t>FBC Colorado</t>
-  </si>
-  <si>
-    <t>Carabobo</t>
-  </si>
-  <si>
-    <t>Universidade Católica do Chile</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Universitário</t>
-  </si>
-  <si>
-    <t>Central Córdoba</t>
-  </si>
-  <si>
-    <t>Deportivo Táchira</t>
-  </si>
-  <si>
-    <t>Alianza Lima</t>
-  </si>
-  <si>
-    <t>Talleres</t>
-  </si>
-  <si>
-    <t>Bucaramanga</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
+    <t>FC Los Castilho</t>
+  </si>
+  <si>
+    <t>TATITTA FC</t>
+  </si>
+  <si>
+    <t>KING LEONN</t>
+  </si>
+  <si>
+    <t>MauHumor F.C.</t>
+  </si>
+  <si>
+    <t>Laranjja Mecannica</t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Independiente del Valle</t>
+  </si>
+  <si>
+    <t>River Plate</t>
+  </si>
+  <si>
+    <t>LDU</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
+    <t>Racing</t>
   </si>
   <si>
     <t>Internacional</t>
   </si>
   <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Cerro Porteño</t>
-  </si>
-  <si>
-    <t>Sporting Cristal</t>
-  </si>
-  <si>
-    <t>San Antônio Bulo Bulo</t>
-  </si>
-  <si>
-    <t>Velez Sarsfield</t>
-  </si>
-  <si>
-    <t>Júlio Cesar</t>
-  </si>
-  <si>
-    <t>Camilo</t>
-  </si>
-  <si>
-    <t>Sauer</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Ananias</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Fedato</t>
-  </si>
-  <si>
-    <t>Elemar</t>
-  </si>
-  <si>
-    <t>Márcio</t>
-  </si>
-  <si>
-    <t>Moodi</t>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
+    <t>Peñarol</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Ivanildo</t>
+  </si>
+  <si>
+    <t>Henrique</t>
+  </si>
+  <si>
+    <t>Paulo Augusto</t>
+  </si>
+  <si>
+    <t>Marllon</t>
+  </si>
+  <si>
+    <t>Boka</t>
+  </si>
+  <si>
+    <t>Fumaco</t>
+  </si>
+  <si>
+    <t>Cassiano</t>
+  </si>
+  <si>
+    <t>Diego</t>
   </si>
   <si>
     <t>Gerônimo</t>
   </si>
   <si>
-    <t>Marquinho</t>
-  </si>
-  <si>
-    <t>Ricardo</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Adriano</t>
-  </si>
-  <si>
-    <t>Fernando</t>
-  </si>
-  <si>
-    <t>BORGES ITAQUI F.C.</t>
-  </si>
-  <si>
-    <t>pura bucha /botafogo</t>
-  </si>
-  <si>
-    <t>Tabajara de Inhaua FC2</t>
-  </si>
-  <si>
-    <t>HS SPORTS F.C</t>
-  </si>
-  <si>
-    <t>cartola scheuer</t>
-  </si>
-  <si>
-    <t>TEAM LOPES 99</t>
-  </si>
-  <si>
-    <t>Super Vasco f.c</t>
-  </si>
-  <si>
-    <t>Texas Club 2025</t>
-  </si>
-  <si>
-    <t>ITAQUI F. C.</t>
-  </si>
-  <si>
-    <t>Real SCI</t>
-  </si>
-  <si>
-    <t>FC Los Castilho</t>
-  </si>
-  <si>
-    <t>seralex</t>
-  </si>
-  <si>
-    <t>TATITTA FC</t>
-  </si>
-  <si>
-    <t>KING LEONN</t>
-  </si>
-  <si>
-    <t>MauHumor F.C.</t>
-  </si>
-  <si>
-    <t>Laranjja Mecannica</t>
-  </si>
-  <si>
-    <t>Estudiantes</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>Independiente del Valle</t>
-  </si>
-  <si>
-    <t>River Plate</t>
-  </si>
-  <si>
-    <t>LDU</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Libertad</t>
-  </si>
-  <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
-    <t>Colo-Colo</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <t>Atlético Nacional</t>
-  </si>
-  <si>
-    <t>Bolívar</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Olimpia</t>
-  </si>
-  <si>
-    <t>Peñarol</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Ivanildo</t>
-  </si>
-  <si>
-    <t>Henrique</t>
-  </si>
-  <si>
-    <t>Paulo Augusto</t>
-  </si>
-  <si>
-    <t>Marllon</t>
-  </si>
-  <si>
-    <t>Boka</t>
-  </si>
-  <si>
-    <t>Fumaco</t>
-  </si>
-  <si>
-    <t>Cassiano</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
     <t>Castilho</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
   <si>
     <t>Tatita</t>
@@ -1093,7 +1093,7 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <v>82.68017578125</v>
+        <v>74.68994140625</v>
       </c>
       <c r="G12" t="s">
         <v>76</v>
@@ -1105,7 +1105,7 @@
         <v>108</v>
       </c>
       <c r="J12">
-        <v>64.75</v>
+        <v>82.68017578125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="F13">
-        <v>74.68994140625</v>
+        <v>68.39990234375</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -1137,7 +1137,7 @@
         <v>109</v>
       </c>
       <c r="J13">
-        <v>68.39990234375</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1641,28 +1641,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12">
+        <v>82.02001953125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12">
         <v>72.89013671875</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12">
-        <v>82.02001953125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1673,25 +1673,25 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>95.58984375</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13">
         <v>86.490234375</v>
@@ -2138,22 +2138,22 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2164,22 +2164,22 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2599,22 +2599,22 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2625,22 +2625,22 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3060,22 +3060,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3086,22 +3086,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10">

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -1886,6 +1886,9 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
+      <c r="F2">
+        <v>63.699951171875</v>
+      </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
@@ -1894,6 +1897,9 @@
       </c>
       <c r="I2" t="s">
         <v>51</v>
+      </c>
+      <c r="J2">
+        <v>71.2001953125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1912,6 +1918,9 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
+      <c r="F3">
+        <v>56.39990234375</v>
+      </c>
       <c r="G3" t="s">
         <v>67</v>
       </c>
@@ -1920,6 +1929,9 @@
       </c>
       <c r="I3" t="s">
         <v>99</v>
+      </c>
+      <c r="J3">
+        <v>77.1201171875</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1938,6 +1950,9 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
+      <c r="F4">
+        <v>82.169921875</v>
+      </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
@@ -1946,6 +1961,9 @@
       </c>
       <c r="I4" t="s">
         <v>53</v>
+      </c>
+      <c r="J4">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1964,6 +1982,9 @@
       <c r="E5" t="s">
         <v>100</v>
       </c>
+      <c r="F5">
+        <v>72.9501953125</v>
+      </c>
       <c r="G5" t="s">
         <v>69</v>
       </c>
@@ -1972,6 +1993,9 @@
       </c>
       <c r="I5" t="s">
         <v>101</v>
+      </c>
+      <c r="J5">
+        <v>65.1201171875</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1990,6 +2014,9 @@
       <c r="E6" t="s">
         <v>54</v>
       </c>
+      <c r="F6">
+        <v>67.39990234375</v>
+      </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -1998,6 +2025,9 @@
       </c>
       <c r="I6" t="s">
         <v>55</v>
+      </c>
+      <c r="J6">
+        <v>82.419921875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2016,6 +2046,9 @@
       <c r="E7" t="s">
         <v>102</v>
       </c>
+      <c r="F7">
+        <v>75.10009765625</v>
+      </c>
       <c r="G7" t="s">
         <v>71</v>
       </c>
@@ -2024,6 +2057,9 @@
       </c>
       <c r="I7" t="s">
         <v>103</v>
+      </c>
+      <c r="J7">
+        <v>68.419921875</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2042,6 +2078,9 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
+      <c r="F8">
+        <v>75.419921875</v>
+      </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2050,6 +2089,9 @@
       </c>
       <c r="I8" t="s">
         <v>57</v>
+      </c>
+      <c r="J8">
+        <v>99.5498046875</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2068,6 +2110,9 @@
       <c r="E9" t="s">
         <v>104</v>
       </c>
+      <c r="F9">
+        <v>71.39990234375</v>
+      </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
@@ -2076,6 +2121,9 @@
       </c>
       <c r="I9" t="s">
         <v>105</v>
+      </c>
+      <c r="J9">
+        <v>76.919921875</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2094,6 +2142,9 @@
       <c r="E10" t="s">
         <v>58</v>
       </c>
+      <c r="F10">
+        <v>95.5498046875</v>
+      </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -2102,6 +2153,9 @@
       </c>
       <c r="I10" t="s">
         <v>59</v>
+      </c>
+      <c r="J10">
+        <v>76.919921875</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2120,6 +2174,9 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
+      <c r="F11">
+        <v>74.02001953125</v>
+      </c>
       <c r="G11" t="s">
         <v>75</v>
       </c>
@@ -2128,6 +2185,9 @@
       </c>
       <c r="I11" t="s">
         <v>107</v>
+      </c>
+      <c r="J11">
+        <v>87.02001953125</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2146,6 +2206,9 @@
       <c r="E12" t="s">
         <v>108</v>
       </c>
+      <c r="F12">
+        <v>91.77001953125</v>
+      </c>
       <c r="G12" t="s">
         <v>77</v>
       </c>
@@ -2154,6 +2217,9 @@
       </c>
       <c r="I12" t="s">
         <v>109</v>
+      </c>
+      <c r="J12">
+        <v>64.47021484375</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2172,6 +2238,9 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
+      <c r="F13">
+        <v>70.10009765625</v>
+      </c>
       <c r="G13" t="s">
         <v>29</v>
       </c>
@@ -2180,6 +2249,9 @@
       </c>
       <c r="I13" t="s">
         <v>61</v>
+      </c>
+      <c r="J13">
+        <v>38.219970703125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2198,6 +2270,9 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
+      <c r="F14">
+        <v>71.6201171875</v>
+      </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
@@ -2206,6 +2281,9 @@
       </c>
       <c r="I14" t="s">
         <v>63</v>
+      </c>
+      <c r="J14">
+        <v>63.89990234375</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2224,6 +2302,9 @@
       <c r="E15" t="s">
         <v>110</v>
       </c>
+      <c r="F15">
+        <v>61.699951171875</v>
+      </c>
       <c r="G15" t="s">
         <v>79</v>
       </c>
@@ -2232,6 +2313,9 @@
       </c>
       <c r="I15" t="s">
         <v>111</v>
+      </c>
+      <c r="J15">
+        <v>84.7001953125</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2250,6 +2334,9 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
+      <c r="F16">
+        <v>86.7998046875</v>
+      </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
@@ -2259,8 +2346,11 @@
       <c r="I16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>81.52001953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2276,6 +2366,9 @@
       <c r="E17" t="s">
         <v>112</v>
       </c>
+      <c r="F17">
+        <v>74.2998046875</v>
+      </c>
       <c r="G17" t="s">
         <v>81</v>
       </c>
@@ -2284,6 +2377,9 @@
       </c>
       <c r="I17" t="s">
         <v>113</v>
+      </c>
+      <c r="J17">
+        <v>80.10009765625</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -2443,6 +2443,9 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
+      <c r="F2">
+        <v>86.72021484375</v>
+      </c>
       <c r="G2" t="s">
         <v>67</v>
       </c>
@@ -2451,6 +2454,9 @@
       </c>
       <c r="I2" t="s">
         <v>99</v>
+      </c>
+      <c r="J2">
+        <v>88.31982421875</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2469,6 +2475,9 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
+      <c r="F3">
+        <v>136.2099609375</v>
+      </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
@@ -2477,6 +2486,9 @@
       </c>
       <c r="I3" t="s">
         <v>98</v>
+      </c>
+      <c r="J3">
+        <v>99.68017578125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2495,6 +2507,9 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
+      <c r="F4">
+        <v>104.93017578125</v>
+      </c>
       <c r="G4" t="s">
         <v>69</v>
       </c>
@@ -2503,6 +2518,9 @@
       </c>
       <c r="I4" t="s">
         <v>101</v>
+      </c>
+      <c r="J4">
+        <v>108.16015625</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2521,6 +2539,9 @@
       <c r="E5" t="s">
         <v>53</v>
       </c>
+      <c r="F5">
+        <v>76.02978515625</v>
+      </c>
       <c r="G5" t="s">
         <v>68</v>
       </c>
@@ -2529,6 +2550,9 @@
       </c>
       <c r="I5" t="s">
         <v>100</v>
+      </c>
+      <c r="J5">
+        <v>94.56005859375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2547,6 +2571,9 @@
       <c r="E6" t="s">
         <v>54</v>
       </c>
+      <c r="F6">
+        <v>119.31005859375</v>
+      </c>
       <c r="G6" t="s">
         <v>71</v>
       </c>
@@ -2555,6 +2582,9 @@
       </c>
       <c r="I6" t="s">
         <v>103</v>
+      </c>
+      <c r="J6">
+        <v>109.06005859375</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2573,6 +2603,9 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
+      <c r="F7">
+        <v>122.259765625</v>
+      </c>
       <c r="G7" t="s">
         <v>70</v>
       </c>
@@ -2581,6 +2614,9 @@
       </c>
       <c r="I7" t="s">
         <v>102</v>
+      </c>
+      <c r="J7">
+        <v>77.35986328125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2599,6 +2635,9 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
+      <c r="F8">
+        <v>90.16015625</v>
+      </c>
       <c r="G8" t="s">
         <v>73</v>
       </c>
@@ -2607,6 +2646,9 @@
       </c>
       <c r="I8" t="s">
         <v>105</v>
+      </c>
+      <c r="J8">
+        <v>79.85986328125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2625,6 +2667,9 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
+      <c r="F9">
+        <v>94.8701171875</v>
+      </c>
       <c r="G9" t="s">
         <v>72</v>
       </c>
@@ -2633,6 +2678,9 @@
       </c>
       <c r="I9" t="s">
         <v>104</v>
+      </c>
+      <c r="J9">
+        <v>90.6298828125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2651,6 +2699,9 @@
       <c r="E10" t="s">
         <v>58</v>
       </c>
+      <c r="F10">
+        <v>85.669921875</v>
+      </c>
       <c r="G10" t="s">
         <v>75</v>
       </c>
@@ -2659,6 +2710,9 @@
       </c>
       <c r="I10" t="s">
         <v>107</v>
+      </c>
+      <c r="J10">
+        <v>99.66015625</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2677,6 +2731,9 @@
       <c r="E11" t="s">
         <v>59</v>
       </c>
+      <c r="F11">
+        <v>63.820068359375</v>
+      </c>
       <c r="G11" t="s">
         <v>74</v>
       </c>
@@ -2685,6 +2742,9 @@
       </c>
       <c r="I11" t="s">
         <v>106</v>
+      </c>
+      <c r="J11">
+        <v>76.72021484375</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2703,6 +2763,9 @@
       <c r="E12" t="s">
         <v>61</v>
       </c>
+      <c r="F12">
+        <v>77.06005859375</v>
+      </c>
       <c r="G12" t="s">
         <v>76</v>
       </c>
@@ -2711,6 +2774,9 @@
       </c>
       <c r="I12" t="s">
         <v>108</v>
+      </c>
+      <c r="J12">
+        <v>81.580078125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2729,6 +2795,9 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
+      <c r="F13">
+        <v>98.47998046875</v>
+      </c>
       <c r="G13" t="s">
         <v>77</v>
       </c>
@@ -2737,6 +2806,9 @@
       </c>
       <c r="I13" t="s">
         <v>109</v>
+      </c>
+      <c r="J13">
+        <v>78.18017578125</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2755,6 +2827,9 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
+      <c r="F14">
+        <v>74.56982421875</v>
+      </c>
       <c r="G14" t="s">
         <v>79</v>
       </c>
@@ -2763,6 +2838,9 @@
       </c>
       <c r="I14" t="s">
         <v>111</v>
+      </c>
+      <c r="J14">
+        <v>84.47998046875</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2781,6 +2859,9 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
+      <c r="F15">
+        <v>99.16015625</v>
+      </c>
       <c r="G15" t="s">
         <v>78</v>
       </c>
@@ -2789,6 +2870,9 @@
       </c>
       <c r="I15" t="s">
         <v>110</v>
+      </c>
+      <c r="J15">
+        <v>90.14990234375</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2807,6 +2891,9 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
+      <c r="F16">
+        <v>79.580078125</v>
+      </c>
       <c r="G16" t="s">
         <v>81</v>
       </c>
@@ -2816,8 +2903,11 @@
       <c r="I16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>63.929931640625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2833,6 +2923,9 @@
       <c r="E17" t="s">
         <v>65</v>
       </c>
+      <c r="F17">
+        <v>78.6201171875</v>
+      </c>
       <c r="G17" t="s">
         <v>80</v>
       </c>
@@ -2841,6 +2934,9 @@
       </c>
       <c r="I17" t="s">
         <v>112</v>
+      </c>
+      <c r="J17">
+        <v>119.10986328125</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -3000,6 +3000,9 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
+      <c r="F2">
+        <v>103.56982421875</v>
+      </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
@@ -3008,6 +3011,9 @@
       </c>
       <c r="I2" t="s">
         <v>50</v>
+      </c>
+      <c r="J2">
+        <v>81.72021484375</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3026,6 +3032,9 @@
       <c r="E3" t="s">
         <v>99</v>
       </c>
+      <c r="F3">
+        <v>76.419921875</v>
+      </c>
       <c r="G3" t="s">
         <v>66</v>
       </c>
@@ -3034,6 +3043,9 @@
       </c>
       <c r="I3" t="s">
         <v>98</v>
+      </c>
+      <c r="J3">
+        <v>67.6201171875</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3052,6 +3064,9 @@
       <c r="E4" t="s">
         <v>53</v>
       </c>
+      <c r="F4">
+        <v>53.52001953125</v>
+      </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
@@ -3060,6 +3075,9 @@
       </c>
       <c r="I4" t="s">
         <v>52</v>
+      </c>
+      <c r="J4">
+        <v>66.22021484375</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3078,6 +3096,9 @@
       <c r="E5" t="s">
         <v>101</v>
       </c>
+      <c r="F5">
+        <v>83.47998046875</v>
+      </c>
       <c r="G5" t="s">
         <v>68</v>
       </c>
@@ -3086,6 +3107,9 @@
       </c>
       <c r="I5" t="s">
         <v>100</v>
+      </c>
+      <c r="J5">
+        <v>91.02001953125</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3104,6 +3128,9 @@
       <c r="E6" t="s">
         <v>55</v>
       </c>
+      <c r="F6">
+        <v>63.39990234375</v>
+      </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
@@ -3112,6 +3139,9 @@
       </c>
       <c r="I6" t="s">
         <v>54</v>
+      </c>
+      <c r="J6">
+        <v>86.6201171875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3130,6 +3160,9 @@
       <c r="E7" t="s">
         <v>103</v>
       </c>
+      <c r="F7">
+        <v>87.27001953125</v>
+      </c>
       <c r="G7" t="s">
         <v>70</v>
       </c>
@@ -3138,6 +3171,9 @@
       </c>
       <c r="I7" t="s">
         <v>102</v>
+      </c>
+      <c r="J7">
+        <v>80.919921875</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3156,6 +3192,9 @@
       <c r="E8" t="s">
         <v>57</v>
       </c>
+      <c r="F8">
+        <v>83.02978515625</v>
+      </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
@@ -3164,6 +3203,9 @@
       </c>
       <c r="I8" t="s">
         <v>56</v>
+      </c>
+      <c r="J8">
+        <v>81.02001953125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3182,6 +3224,9 @@
       <c r="E9" t="s">
         <v>105</v>
       </c>
+      <c r="F9">
+        <v>71.31982421875</v>
+      </c>
       <c r="G9" t="s">
         <v>72</v>
       </c>
@@ -3190,6 +3235,9 @@
       </c>
       <c r="I9" t="s">
         <v>104</v>
+      </c>
+      <c r="J9">
+        <v>85.31982421875</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3208,6 +3256,9 @@
       <c r="E10" t="s">
         <v>59</v>
       </c>
+      <c r="F10">
+        <v>80.3798828125</v>
+      </c>
       <c r="G10" t="s">
         <v>26</v>
       </c>
@@ -3216,6 +3267,9 @@
       </c>
       <c r="I10" t="s">
         <v>58</v>
+      </c>
+      <c r="J10">
+        <v>86.02978515625</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3234,6 +3288,9 @@
       <c r="E11" t="s">
         <v>107</v>
       </c>
+      <c r="F11">
+        <v>82.419921875</v>
+      </c>
       <c r="G11" t="s">
         <v>74</v>
       </c>
@@ -3242,6 +3299,9 @@
       </c>
       <c r="I11" t="s">
         <v>106</v>
+      </c>
+      <c r="J11">
+        <v>54.52001953125</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3260,6 +3320,9 @@
       <c r="E12" t="s">
         <v>109</v>
       </c>
+      <c r="F12">
+        <v>87.22998046875</v>
+      </c>
       <c r="G12" t="s">
         <v>76</v>
       </c>
@@ -3268,6 +3331,9 @@
       </c>
       <c r="I12" t="s">
         <v>108</v>
+      </c>
+      <c r="J12">
+        <v>86.77001953125</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3286,6 +3352,9 @@
       <c r="E13" t="s">
         <v>61</v>
       </c>
+      <c r="F13">
+        <v>69.919921875</v>
+      </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
@@ -3294,6 +3363,9 @@
       </c>
       <c r="I13" t="s">
         <v>60</v>
+      </c>
+      <c r="J13">
+        <v>86.22021484375</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3312,6 +3384,9 @@
       <c r="E14" t="s">
         <v>63</v>
       </c>
+      <c r="F14">
+        <v>69.14990234375</v>
+      </c>
       <c r="G14" t="s">
         <v>30</v>
       </c>
@@ -3320,6 +3395,9 @@
       </c>
       <c r="I14" t="s">
         <v>62</v>
+      </c>
+      <c r="J14">
+        <v>67.22998046875</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3338,6 +3416,9 @@
       <c r="E15" t="s">
         <v>111</v>
       </c>
+      <c r="F15">
+        <v>72.60986328125</v>
+      </c>
       <c r="G15" t="s">
         <v>78</v>
       </c>
@@ -3346,6 +3427,9 @@
       </c>
       <c r="I15" t="s">
         <v>110</v>
+      </c>
+      <c r="J15">
+        <v>58.429931640625</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3364,6 +3448,9 @@
       <c r="E16" t="s">
         <v>65</v>
       </c>
+      <c r="F16">
+        <v>69.3798828125</v>
+      </c>
       <c r="G16" t="s">
         <v>32</v>
       </c>
@@ -3373,8 +3460,11 @@
       <c r="I16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>73.009765625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3390,6 +3480,9 @@
       <c r="E17" t="s">
         <v>113</v>
       </c>
+      <c r="F17">
+        <v>74.52001953125</v>
+      </c>
       <c r="G17" t="s">
         <v>80</v>
       </c>
@@ -3398,6 +3491,9 @@
       </c>
       <c r="I17" t="s">
         <v>112</v>
+      </c>
+      <c r="J17">
+        <v>69.93017578125</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -3557,6 +3557,9 @@
       <c r="E2" t="s">
         <v>99</v>
       </c>
+      <c r="F2">
+        <v>77.5</v>
+      </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
@@ -3565,6 +3568,9 @@
       </c>
       <c r="I2" t="s">
         <v>51</v>
+      </c>
+      <c r="J2">
+        <v>78.56005859375</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3583,6 +3589,9 @@
       <c r="E3" t="s">
         <v>98</v>
       </c>
+      <c r="F3">
+        <v>109.64990234375</v>
+      </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
@@ -3591,6 +3600,9 @@
       </c>
       <c r="I3" t="s">
         <v>50</v>
+      </c>
+      <c r="J3">
+        <v>93.35986328125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3609,6 +3621,9 @@
       <c r="E4" t="s">
         <v>101</v>
       </c>
+      <c r="F4">
+        <v>82.64990234375</v>
+      </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
@@ -3617,6 +3632,9 @@
       </c>
       <c r="I4" t="s">
         <v>53</v>
+      </c>
+      <c r="J4">
+        <v>68.4501953125</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3635,6 +3653,9 @@
       <c r="E5" t="s">
         <v>100</v>
       </c>
+      <c r="F5">
+        <v>106.14990234375</v>
+      </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -3643,6 +3664,9 @@
       </c>
       <c r="I5" t="s">
         <v>52</v>
+      </c>
+      <c r="J5">
+        <v>108.56005859375</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3661,6 +3685,9 @@
       <c r="E6" t="s">
         <v>103</v>
       </c>
+      <c r="F6">
+        <v>106.06005859375</v>
+      </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
@@ -3669,6 +3696,9 @@
       </c>
       <c r="I6" t="s">
         <v>55</v>
+      </c>
+      <c r="J6">
+        <v>88.35986328125</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3687,6 +3717,9 @@
       <c r="E7" t="s">
         <v>102</v>
       </c>
+      <c r="F7">
+        <v>98.2998046875</v>
+      </c>
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -3695,6 +3728,9 @@
       </c>
       <c r="I7" t="s">
         <v>54</v>
+      </c>
+      <c r="J7">
+        <v>104.2001953125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3713,6 +3749,9 @@
       <c r="E8" t="s">
         <v>105</v>
       </c>
+      <c r="F8">
+        <v>119.85009765625</v>
+      </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -3721,6 +3760,9 @@
       </c>
       <c r="I8" t="s">
         <v>57</v>
+      </c>
+      <c r="J8">
+        <v>86.06005859375</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3739,6 +3781,9 @@
       <c r="E9" t="s">
         <v>104</v>
       </c>
+      <c r="F9">
+        <v>100.85986328125</v>
+      </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
@@ -3747,6 +3792,9 @@
       </c>
       <c r="I9" t="s">
         <v>56</v>
+      </c>
+      <c r="J9">
+        <v>92.06005859375</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3765,6 +3813,9 @@
       <c r="E10" t="s">
         <v>107</v>
       </c>
+      <c r="F10">
+        <v>103.259765625</v>
+      </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -3773,6 +3824,9 @@
       </c>
       <c r="I10" t="s">
         <v>59</v>
+      </c>
+      <c r="J10">
+        <v>103.66015625</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3791,6 +3845,9 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
+      <c r="F11">
+        <v>56.330078125</v>
+      </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
@@ -3799,6 +3856,9 @@
       </c>
       <c r="I11" t="s">
         <v>58</v>
+      </c>
+      <c r="J11">
+        <v>78.919921875</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3817,6 +3877,9 @@
       <c r="E12" t="s">
         <v>109</v>
       </c>
+      <c r="F12">
+        <v>86.35986328125</v>
+      </c>
       <c r="G12" t="s">
         <v>29</v>
       </c>
@@ -3825,6 +3888,9 @@
       </c>
       <c r="I12" t="s">
         <v>61</v>
+      </c>
+      <c r="J12">
+        <v>66.759765625</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3843,6 +3909,9 @@
       <c r="E13" t="s">
         <v>108</v>
       </c>
+      <c r="F13">
+        <v>82.60986328125</v>
+      </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
@@ -3851,6 +3920,9 @@
       </c>
       <c r="I13" t="s">
         <v>60</v>
+      </c>
+      <c r="J13">
+        <v>98.16015625</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3869,6 +3941,9 @@
       <c r="E14" t="s">
         <v>111</v>
       </c>
+      <c r="F14">
+        <v>99.56005859375</v>
+      </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
@@ -3877,6 +3952,9 @@
       </c>
       <c r="I14" t="s">
         <v>63</v>
+      </c>
+      <c r="J14">
+        <v>77.85986328125</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3895,6 +3973,9 @@
       <c r="E15" t="s">
         <v>110</v>
       </c>
+      <c r="F15">
+        <v>73.259765625</v>
+      </c>
       <c r="G15" t="s">
         <v>30</v>
       </c>
@@ -3903,6 +3984,9 @@
       </c>
       <c r="I15" t="s">
         <v>62</v>
+      </c>
+      <c r="J15">
+        <v>70.93017578125</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3921,6 +4005,9 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
+      <c r="F16">
+        <v>49.260009765625</v>
+      </c>
       <c r="G16" t="s">
         <v>33</v>
       </c>
@@ -3930,8 +4017,11 @@
       <c r="I16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>92.0498046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3947,6 +4037,9 @@
       <c r="E17" t="s">
         <v>112</v>
       </c>
+      <c r="F17">
+        <v>107.7001953125</v>
+      </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
@@ -3955,6 +4048,9 @@
       </c>
       <c r="I17" t="s">
         <v>64</v>
+      </c>
+      <c r="J17">
+        <v>78.85986328125</v>
       </c>
     </row>
   </sheetData>
